--- a/englishOutputs/englishComparison_3.xlsx
+++ b/englishOutputs/englishComparison_3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="225">
   <si>
     <t>Sentence</t>
   </si>
@@ -79,6 +79,9 @@
     <t>How old are you?</t>
   </si>
   <si>
+    <t>[?]l/s</t>
+  </si>
+  <si>
     <t>I'm 69 this month.</t>
   </si>
   <si>
@@ -154,469 +157,469 @@
     <t>I had some once...a couple of times...  but I'm not taking any now.</t>
   </si>
   <si>
+    <t>Have you ever had any studies, any studies for your...?</t>
+  </si>
+  <si>
+    <t>?med</t>
+  </si>
+  <si>
+    <t>Any physical examinations?</t>
+  </si>
+  <si>
+    <t>Any x-rays?</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>I...I consider myself pretty healthy, I  think  I'm pretty healthy.</t>
+  </si>
+  <si>
+    <t>r/o</t>
+  </si>
+  <si>
+    <t>But this...ah... increasing shortness of breath...has got me worried because,</t>
+  </si>
+  <si>
+    <t>as I say I'm pretty  healthy but I know this is a bad sign for something.</t>
+  </si>
+  <si>
+    <t>But this cold's...still--</t>
+  </si>
+  <si>
+    <t>trans</t>
+  </si>
+  <si>
+    <t>Do you smoke?</t>
+  </si>
+  <si>
+    <t>Yeah, I smoke.</t>
+  </si>
+  <si>
+    <t>How much?</t>
+  </si>
+  <si>
+    <t>?p/s</t>
+  </si>
+  <si>
+    <t>Oh, I guess about a pack a day.</t>
+  </si>
+  <si>
+    <t>(coughs) Excuse me.</t>
+  </si>
+  <si>
+    <t>Have you had any other serious illnesses in the past, any heart trouble?</t>
+  </si>
+  <si>
+    <t>No...</t>
+  </si>
+  <si>
+    <t>No, I haven't had any.</t>
+  </si>
+  <si>
+    <t>That's the reason I say I think I'm pretty healthy.</t>
+  </si>
+  <si>
+    <t>No trouble with your kidneys?</t>
+  </si>
+  <si>
+    <t>Have you ever had any surgery?</t>
+  </si>
+  <si>
+    <t>When I was 9 years old.</t>
+  </si>
+  <si>
+    <t>What kind of surgery?</t>
+  </si>
+  <si>
+    <t>Ah...appendicitis.</t>
+  </si>
+  <si>
+    <t>Do you have any problems with headaches or dizziness?</t>
+  </si>
+  <si>
+    <t>Any trouble with your vision?</t>
+  </si>
+  <si>
+    <t>I wear glasses for reading.</t>
+  </si>
+  <si>
+    <t>That's all.</t>
+  </si>
+  <si>
+    <t>Do you sleep well at night?</t>
+  </si>
+  <si>
+    <t>I think I sleep pretty good.</t>
+  </si>
+  <si>
+    <t>I get up...when I have the colds, why of course I  don't...sleep too well.</t>
+  </si>
+  <si>
+    <t>Ah...I may get up and go the head once or twice.</t>
+  </si>
+  <si>
+    <t>But I sleep pretty good.</t>
+  </si>
+  <si>
+    <t>Do you...is your cough pretty severe?</t>
+  </si>
+  <si>
+    <t>With the colds?</t>
+  </si>
+  <si>
+    <t>Yeah, quite a lot of coughing and...</t>
+  </si>
+  <si>
+    <t>Do you bring up some sputum?</t>
+  </si>
+  <si>
+    <t>Phlegm?</t>
+  </si>
+  <si>
+    <t>Yeah.</t>
+  </si>
+  <si>
+    <t>(laughs)</t>
+  </si>
+  <si>
+    <t>laughs</t>
+  </si>
+  <si>
+    <t>Is this any time of day or night or is it worse at sometime?</t>
+  </si>
+  <si>
+    <t>Ah...well when I have the cold it's day and night, sure.</t>
+  </si>
+  <si>
+    <t>How about your...this shortness of breath.</t>
+  </si>
+  <si>
+    <t>Does  anyt hing bring it on for you?</t>
+  </si>
+  <si>
+    <t>Are...are you short of breath at night when you're sleeping or...</t>
+  </si>
+  <si>
+    <t>when you're laying  down?</t>
+  </si>
+  <si>
+    <t>c-l/s-p/s</t>
+  </si>
+  <si>
+    <t>Well, a little bit.</t>
+  </si>
+  <si>
+    <t>But it isn't so bad as when I have the colds.</t>
+  </si>
+  <si>
+    <t>You say does  anything bring it on.</t>
+  </si>
+  <si>
+    <t>Ah...I like to ride my bike a little bit and that, ah...</t>
+  </si>
+  <si>
+    <t>That makes it...</t>
+  </si>
+  <si>
+    <t>That, ah, that makes it very noticeable.</t>
+  </si>
+  <si>
+    <t>So I don't ride my bike any more  like I used to.</t>
+  </si>
+  <si>
+    <t>Can you walk down the street   without shortness of breath?</t>
+  </si>
+  <si>
+    <t>Well, I can walk, ah...</t>
+  </si>
+  <si>
+    <t>With or without the cold?</t>
+  </si>
+  <si>
+    <t>Because it's worse with the cold.  What do you mean--with or without the cold?</t>
+  </si>
+  <si>
+    <t>When you don't have the cold you can walk, ah...?</t>
+  </si>
+  <si>
+    <t>Well I can walk, ah, 3 blocks, 4 blocks</t>
+  </si>
+  <si>
+    <t>and...that's about a quarter of a mile I think, something like that.</t>
+  </si>
+  <si>
+    <t>And then I notice shortness of breath, yeah.</t>
+  </si>
+  <si>
+    <t>Your appetite's good?</t>
+  </si>
+  <si>
+    <t>I think it is, yeah.</t>
+  </si>
+  <si>
+    <t>No particular nausea or vomiting?</t>
+  </si>
+  <si>
+    <t>Bowels move alright?</t>
+  </si>
+  <si>
+    <t>Oh...</t>
+  </si>
+  <si>
+    <t>I think I'm one of the regulars.</t>
+  </si>
+  <si>
+    <t>Pass your urine okay?</t>
+  </si>
+  <si>
+    <t>I think so.</t>
+  </si>
+  <si>
+    <t>Anybody in your family have serious illnesses?</t>
+  </si>
+  <si>
+    <t>Brothers and sisters have any  serious problems with heart trouble or trouble with their lungs?</t>
+  </si>
+  <si>
+    <t>Ah, I don't know of any lung problem.</t>
+  </si>
+  <si>
+    <t>I had 3 half brothers and a half sister.</t>
+  </si>
+  <si>
+    <t>I never had a full...relation.</t>
+  </si>
+  <si>
+    <t>But, ah...they were older, much older than I am.</t>
+  </si>
+  <si>
+    <t>They passed away.</t>
+  </si>
+  <si>
+    <t>They lived some place out of town.</t>
+  </si>
+  <si>
+    <t>I really can’t.... I don't know for sure exactly what they had except my sister.</t>
+  </si>
+  <si>
+    <t>She was in her  late 70's, and she kind of got weak and infirmed.</t>
+  </si>
+  <si>
+    <t>I guess that's the right word.</t>
+  </si>
+  <si>
+    <t>Okay, let's ah...</t>
+  </si>
+  <si>
+    <t>I think now we'll slip your sweater and shirt off.</t>
+  </si>
+  <si>
+    <t>Yeah, I like to think I'm pretty healthy and then this shortness of breath.</t>
+  </si>
+  <si>
+    <t>I guess it's  reason to be concerned about it, isn't it?</t>
+  </si>
+  <si>
+    <t>?reassure</t>
+  </si>
+  <si>
+    <t>Sounds that way, yes.</t>
+  </si>
+  <si>
+    <t>legit</t>
+  </si>
+  <si>
+    <t>Want me to take this shirt off?</t>
+  </si>
+  <si>
+    <t>[?]other</t>
+  </si>
+  <si>
+    <t>Right down to the bare...</t>
+  </si>
+  <si>
+    <t>Just have a seat again please.</t>
+  </si>
+  <si>
+    <t>Yes sir.</t>
+  </si>
+  <si>
+    <t>I'll be back in just a minute.</t>
+  </si>
+  <si>
+    <t>What are you, about 6'4"?</t>
+  </si>
+  <si>
+    <t>6-5.</t>
+  </si>
+  <si>
+    <t>bc</t>
+  </si>
+  <si>
+    <t>Blood pressure is good.</t>
+  </si>
+  <si>
+    <t>It is?</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>80.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That's one thing in my favor, maybe, huh? </t>
+  </si>
+  <si>
+    <t>Let's just listen here.</t>
+  </si>
+  <si>
+    <t>Now, keep your mouth open please</t>
+  </si>
+  <si>
+    <t>and breath through your mouth,           in and out.</t>
+  </si>
+  <si>
+    <t>Okay, that's good.</t>
+  </si>
+  <si>
+    <t>Now keep your mouth open and breathe again please.</t>
+  </si>
+  <si>
+    <t>Okay that's good.</t>
+  </si>
+  <si>
+    <t>You say it's good, huh?</t>
+  </si>
+  <si>
+    <t>Well...</t>
+  </si>
+  <si>
+    <t>I do think you have a problem.</t>
+  </si>
+  <si>
+    <t>Most likely with your bronchial tubes.</t>
+  </si>
+  <si>
+    <t>But this is something that, that has to have further investigation</t>
+  </si>
+  <si>
+    <t>and then some  treatment.</t>
+  </si>
+  <si>
+    <t>So I think there's a number of things we should do.</t>
+  </si>
+  <si>
+    <t>I think you'll need a chest x-ray.</t>
+  </si>
+  <si>
+    <t>You will need some studies for...to see how you're breathing.</t>
+  </si>
+  <si>
+    <t>That makes it sound very bad.</t>
+  </si>
+  <si>
+    <t>Well, not necessarily.</t>
+  </si>
+  <si>
+    <t>I'm concerned and that makes it sound worse.</t>
+  </si>
+  <si>
+    <t>But I think you have some chronic irritation in your bronchial tubes.</t>
+  </si>
+  <si>
+    <t>And they keep secreting mucous and then subject you to infection</t>
+  </si>
+  <si>
+    <t>But if we can get this basic              study...</t>
+  </si>
+  <si>
+    <t>You mean when I have the cold in the lungs.</t>
+  </si>
+  <si>
+    <t>That's right.</t>
+  </si>
+  <si>
+    <t>And it makes you more susceptible.</t>
+  </si>
+  <si>
+    <t>So we'll have to...  I’ll write down a list of a few studies to be done at the lab.</t>
+  </si>
+  <si>
+    <t>And after that's done,              you come back in and start under some treatment.</t>
+  </si>
+  <si>
+    <t>Now there are a few things               you can do to start with immediately.</t>
+  </si>
+  <si>
+    <t>Of course, you should avoid anything             that irritates your...bronchial tubes.</t>
+  </si>
+  <si>
+    <t>Any type of irritation.</t>
+  </si>
+  <si>
+    <t>That goes for smoking...</t>
+  </si>
+  <si>
+    <t>dust, fumes...</t>
+  </si>
+  <si>
+    <t>anything of that order.</t>
+  </si>
+  <si>
+    <t>I tried to stop smoking once.</t>
+  </si>
+  <si>
+    <t>This is very important.</t>
+  </si>
+  <si>
+    <t>Any time you smoke, the tars and the smoke irritates the  bronchial tubes</t>
+  </si>
+  <si>
+    <t>and causes them to secrete more mucous and makes you more  susceptible to infection.</t>
+  </si>
+  <si>
+    <t>So smoking is extremely important.</t>
+  </si>
+  <si>
+    <t>To avoid smoking is extremely important as something you have to try to do,</t>
+  </si>
+  <si>
+    <t>or this process continues  getting worse and worse.</t>
+  </si>
+  <si>
+    <t>I know I'm not smart...when it comes to smoking.</t>
+  </si>
+  <si>
+    <t>But I'm also a weak, a weak,  fellow.</t>
+  </si>
+  <si>
+    <t>I tried to stop once...but just couldn't make it.</t>
+  </si>
+  <si>
+    <t>Well, this is something that...that you'll have to work on a little bit at a time.</t>
+  </si>
+  <si>
+    <t>And  maybe with repeated visits, as you get on some medication, ah...</t>
+  </si>
+  <si>
+    <t>you can start  cutting down more and more on your cigarettes.</t>
+  </si>
+  <si>
+    <t>So I'll write down this list--</t>
+  </si>
+  <si>
+    <t>Ah-hmm.</t>
+  </si>
+  <si>
+    <t>--Of work that should be done for you.</t>
+  </si>
+  <si>
+    <t>Shall I...get my shirt on?</t>
+  </si>
+  <si>
     <t>gives-p/s</t>
-  </si>
-  <si>
-    <t>Have you ever had any studies, any studies for your...?</t>
-  </si>
-  <si>
-    <t>?med</t>
-  </si>
-  <si>
-    <t>Any physical examinations?</t>
-  </si>
-  <si>
-    <t>Any x-rays?</t>
-  </si>
-  <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>I...I consider myself pretty healthy, I  think  I'm pretty healthy.</t>
-  </si>
-  <si>
-    <t>r/o</t>
-  </si>
-  <si>
-    <t>But this...ah... increasing shortness of breath...has got me worried because,</t>
-  </si>
-  <si>
-    <t>as I say I'm pretty  healthy but I know this is a bad sign for something.</t>
-  </si>
-  <si>
-    <t>But this cold's...still--</t>
-  </si>
-  <si>
-    <t>trans</t>
-  </si>
-  <si>
-    <t>Do you smoke?</t>
-  </si>
-  <si>
-    <t>[?]l/s</t>
-  </si>
-  <si>
-    <t>Yeah, I smoke.</t>
-  </si>
-  <si>
-    <t>How much?</t>
-  </si>
-  <si>
-    <t>Oh, I guess about a pack a day.</t>
-  </si>
-  <si>
-    <t>(coughs) Excuse me.</t>
-  </si>
-  <si>
-    <t>Have you had any other serious illnesses in the past, any heart trouble?</t>
-  </si>
-  <si>
-    <t>No...</t>
-  </si>
-  <si>
-    <t>No, I haven't had any.</t>
-  </si>
-  <si>
-    <t>That's the reason I say I think I'm pretty healthy.</t>
-  </si>
-  <si>
-    <t>No trouble with your kidneys?</t>
-  </si>
-  <si>
-    <t>Have you ever had any surgery?</t>
-  </si>
-  <si>
-    <t>When I was 9 years old.</t>
-  </si>
-  <si>
-    <t>What kind of surgery?</t>
-  </si>
-  <si>
-    <t>Ah...appendicitis.</t>
-  </si>
-  <si>
-    <t>Do you have any problems with headaches or dizziness?</t>
-  </si>
-  <si>
-    <t>Any trouble with your vision?</t>
-  </si>
-  <si>
-    <t>I wear glasses for reading.</t>
-  </si>
-  <si>
-    <t>That's all.</t>
-  </si>
-  <si>
-    <t>Do you sleep well at night?</t>
-  </si>
-  <si>
-    <t>I think I sleep pretty good.</t>
-  </si>
-  <si>
-    <t>I get up...when I have the colds, why of course I  don't...sleep too well.</t>
-  </si>
-  <si>
-    <t>Ah...I may get up and go the head once or twice.</t>
-  </si>
-  <si>
-    <t>But I sleep pretty good.</t>
-  </si>
-  <si>
-    <t>Do you...is your cough pretty severe?</t>
-  </si>
-  <si>
-    <t>With the colds?</t>
-  </si>
-  <si>
-    <t>Yeah, quite a lot of coughing and...</t>
-  </si>
-  <si>
-    <t>Do you bring up some sputum?</t>
-  </si>
-  <si>
-    <t>Phlegm?</t>
-  </si>
-  <si>
-    <t>Yeah.</t>
-  </si>
-  <si>
-    <t>(laughs)</t>
-  </si>
-  <si>
-    <t>laughs</t>
-  </si>
-  <si>
-    <t>Is this any time of day or night or is it worse at sometime?</t>
-  </si>
-  <si>
-    <t>Ah...well when I have the cold it's day and night, sure.</t>
-  </si>
-  <si>
-    <t>How about your...this shortness of breath.</t>
-  </si>
-  <si>
-    <t>Does  anyt hing bring it on for you?</t>
-  </si>
-  <si>
-    <t>Are...are you short of breath at night when you're sleeping or...</t>
-  </si>
-  <si>
-    <t>when you're laying  down?</t>
-  </si>
-  <si>
-    <t>Well, a little bit.</t>
-  </si>
-  <si>
-    <t>But it isn't so bad as when I have the colds.</t>
-  </si>
-  <si>
-    <t>You say does  anything bring it on.</t>
-  </si>
-  <si>
-    <t>Ah...I like to ride my bike a little bit and that, ah...</t>
-  </si>
-  <si>
-    <t>That makes it...</t>
-  </si>
-  <si>
-    <t>That, ah, that makes it very noticeable.</t>
-  </si>
-  <si>
-    <t>So I don't ride my bike any more  like I used to.</t>
-  </si>
-  <si>
-    <t>Can you walk down the street   without shortness of breath?</t>
-  </si>
-  <si>
-    <t>Well, I can walk, ah...</t>
-  </si>
-  <si>
-    <t>With or without the cold?</t>
-  </si>
-  <si>
-    <t>Because it's worse with the cold.  What do you mean--with or without the cold?</t>
-  </si>
-  <si>
-    <t>When you don't have the cold you can walk, ah...?</t>
-  </si>
-  <si>
-    <t>Well I can walk, ah, 3 blocks, 4 blocks</t>
-  </si>
-  <si>
-    <t>and...that's about a quarter of a mile I think, something like that.</t>
-  </si>
-  <si>
-    <t>And then I notice shortness of breath, yeah.</t>
-  </si>
-  <si>
-    <t>Your appetite's good?</t>
-  </si>
-  <si>
-    <t>I think it is, yeah.</t>
-  </si>
-  <si>
-    <t>No particular nausea or vomiting?</t>
-  </si>
-  <si>
-    <t>Bowels move alright?</t>
-  </si>
-  <si>
-    <t>Oh...</t>
-  </si>
-  <si>
-    <t>I think I'm one of the regulars.</t>
-  </si>
-  <si>
-    <t>Pass your urine okay?</t>
-  </si>
-  <si>
-    <t>I think so.</t>
-  </si>
-  <si>
-    <t>Anybody in your family have serious illnesses?</t>
-  </si>
-  <si>
-    <t>Brothers and sisters have any  serious problems with heart trouble or trouble with their lungs?</t>
-  </si>
-  <si>
-    <t>Ah, I don't know of any lung problem.</t>
-  </si>
-  <si>
-    <t>I had 3 half brothers and a half sister.</t>
-  </si>
-  <si>
-    <t>I never had a full...relation.</t>
-  </si>
-  <si>
-    <t>But, ah...they were older, much older than I am.</t>
-  </si>
-  <si>
-    <t>They passed away.</t>
-  </si>
-  <si>
-    <t>They lived some place out of town.</t>
-  </si>
-  <si>
-    <t>I really can’t.... I don't know for sure exactly what they had except my sister.</t>
-  </si>
-  <si>
-    <t>She was in her  late 70's, and she kind of got weak and infirmed.</t>
-  </si>
-  <si>
-    <t>I guess that's the right word.</t>
-  </si>
-  <si>
-    <t>Okay, let's ah...</t>
-  </si>
-  <si>
-    <t>I think now we'll slip your sweater and shirt off.</t>
-  </si>
-  <si>
-    <t>Yeah, I like to think I'm pretty healthy and then this shortness of breath.</t>
-  </si>
-  <si>
-    <t>I guess it's  reason to be concerned about it, isn't it?</t>
-  </si>
-  <si>
-    <t>?reassure</t>
-  </si>
-  <si>
-    <t>Sounds that way, yes.</t>
-  </si>
-  <si>
-    <t>legit</t>
-  </si>
-  <si>
-    <t>Want me to take this shirt off?</t>
-  </si>
-  <si>
-    <t>[?]other</t>
-  </si>
-  <si>
-    <t>Right down to the bare...</t>
-  </si>
-  <si>
-    <t>Just have a seat again please.</t>
-  </si>
-  <si>
-    <t>Yes sir.</t>
-  </si>
-  <si>
-    <t>I'll be back in just a minute.</t>
-  </si>
-  <si>
-    <t>What are you, about 6'4"?</t>
-  </si>
-  <si>
-    <t>6-5.</t>
-  </si>
-  <si>
-    <t>bc</t>
-  </si>
-  <si>
-    <t>Blood pressure is good.</t>
-  </si>
-  <si>
-    <t>It is?</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>80.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">That's one thing in my favor, maybe, huh? </t>
-  </si>
-  <si>
-    <t>Let's just listen here.</t>
-  </si>
-  <si>
-    <t>Now, keep your mouth open please</t>
-  </si>
-  <si>
-    <t>and breath through your mouth,           in and out.</t>
-  </si>
-  <si>
-    <t>Okay, that's good.</t>
-  </si>
-  <si>
-    <t>Now keep your mouth open and breathe again please.</t>
-  </si>
-  <si>
-    <t>Okay that's good.</t>
-  </si>
-  <si>
-    <t>You say it's good, huh?</t>
-  </si>
-  <si>
-    <t>Well...</t>
-  </si>
-  <si>
-    <t>I do think you have a problem.</t>
-  </si>
-  <si>
-    <t>Most likely with your bronchial tubes.</t>
-  </si>
-  <si>
-    <t>But this is something that, that has to have further investigation</t>
-  </si>
-  <si>
-    <t>and then some  treatment.</t>
-  </si>
-  <si>
-    <t>So I think there's a number of things we should do.</t>
-  </si>
-  <si>
-    <t>I think you'll need a chest x-ray.</t>
-  </si>
-  <si>
-    <t>You will need some studies for...to see how you're breathing.</t>
-  </si>
-  <si>
-    <t>That makes it sound very bad.</t>
-  </si>
-  <si>
-    <t>Well, not necessarily.</t>
-  </si>
-  <si>
-    <t>I'm concerned and that makes it sound worse.</t>
-  </si>
-  <si>
-    <t>But I think you have some chronic irritation in your bronchial tubes.</t>
-  </si>
-  <si>
-    <t>And they keep secreting mucous and then subject you to infection</t>
-  </si>
-  <si>
-    <t>c-l/s-p/s</t>
-  </si>
-  <si>
-    <t>But if we can get this basic              study...</t>
-  </si>
-  <si>
-    <t>You mean when I have the cold in the lungs.</t>
-  </si>
-  <si>
-    <t>That's right.</t>
-  </si>
-  <si>
-    <t>And it makes you more susceptible.</t>
-  </si>
-  <si>
-    <t>So we'll have to...  I’ll write down a list of a few studies to be done at the lab.</t>
-  </si>
-  <si>
-    <t>And after that's done,              you come back in and start under some treatment.</t>
-  </si>
-  <si>
-    <t>Now there are a few things               you can do to start with immediately.</t>
-  </si>
-  <si>
-    <t>Of course, you should avoid anything             that irritates your...bronchial tubes.</t>
-  </si>
-  <si>
-    <t>Any type of irritation.</t>
-  </si>
-  <si>
-    <t>That goes for smoking...</t>
-  </si>
-  <si>
-    <t>dust, fumes...</t>
-  </si>
-  <si>
-    <t>anything of that order.</t>
-  </si>
-  <si>
-    <t>I tried to stop smoking once.</t>
-  </si>
-  <si>
-    <t>This is very important.</t>
-  </si>
-  <si>
-    <t>Any time you smoke, the tars and the smoke irritates the  bronchial tubes</t>
-  </si>
-  <si>
-    <t>and causes them to secrete more mucous and makes you more  susceptible to infection.</t>
-  </si>
-  <si>
-    <t>So smoking is extremely important.</t>
-  </si>
-  <si>
-    <t>To avoid smoking is extremely important as something you have to try to do,</t>
-  </si>
-  <si>
-    <t>or this process continues  getting worse and worse.</t>
-  </si>
-  <si>
-    <t>I know I'm not smart...when it comes to smoking.</t>
-  </si>
-  <si>
-    <t>But I'm also a weak, a weak,  fellow.</t>
-  </si>
-  <si>
-    <t>I tried to stop once...but just couldn't make it.</t>
-  </si>
-  <si>
-    <t>Well, this is something that...that you'll have to work on a little bit at a time.</t>
-  </si>
-  <si>
-    <t>And  maybe with repeated visits, as you get on some medication, ah...</t>
-  </si>
-  <si>
-    <t>you can start  cutting down more and more on your cigarettes.</t>
-  </si>
-  <si>
-    <t>So I'll write down this list--</t>
-  </si>
-  <si>
-    <t>Ah-hmm.</t>
-  </si>
-  <si>
-    <t>--Of work that should be done for you.</t>
-  </si>
-  <si>
-    <t>Shall I...get my shirt on?</t>
   </si>
   <si>
     <t>Yes, you can.</t>
@@ -1174,12 +1177,12 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -1190,10 +1193,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
@@ -1201,32 +1204,32 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
         <v>26</v>
       </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
@@ -1234,21 +1237,21 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
@@ -1256,7 +1259,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -1267,65 +1270,65 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
         <v>35</v>
-      </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -1333,10 +1336,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
@@ -1355,10 +1358,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
         <v>17</v>
@@ -1366,24 +1369,24 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" t="s">
         <v>45</v>
       </c>
-      <c r="B33" t="s">
-        <v>44</v>
-      </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1449,7 +1452,7 @@
         <v>53</v>
       </c>
       <c r="C39" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1457,7 +1460,7 @@
         <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C40" t="s">
         <v>6</v>
@@ -1468,10 +1471,10 @@
         <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1482,7 +1485,7 @@
         <v>57</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1490,18 +1493,18 @@
         <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="C43" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44" t="s">
         <v>6</v>
@@ -1509,13 +1512,13 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" t="s">
         <v>61</v>
-      </c>
-      <c r="B45" t="s">
-        <v>59</v>
-      </c>
-      <c r="C45" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1523,7 +1526,7 @@
         <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46" t="s">
         <v>6</v>
@@ -1537,7 +1540,7 @@
         <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1548,7 +1551,7 @@
         <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1614,7 +1617,7 @@
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1625,7 +1628,7 @@
         <v>48</v>
       </c>
       <c r="C55" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1680,7 +1683,7 @@
         <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1724,7 +1727,7 @@
         <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1735,7 +1738,7 @@
         <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1790,7 +1793,7 @@
         <v>17</v>
       </c>
       <c r="C70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1801,7 +1804,7 @@
         <v>13</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1834,7 +1837,7 @@
         <v>48</v>
       </c>
       <c r="C74" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1856,7 +1859,7 @@
         <v>11</v>
       </c>
       <c r="C76" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1867,7 +1870,7 @@
         <v>48</v>
       </c>
       <c r="C77" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1878,7 +1881,7 @@
         <v>17</v>
       </c>
       <c r="C78" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1889,12 +1892,12 @@
         <v>17</v>
       </c>
       <c r="C79" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B80" t="s">
         <v>6</v>
@@ -1905,7 +1908,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B81" t="s">
         <v>6</v>
@@ -1916,7 +1919,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B82" t="s">
         <v>13</v>
@@ -1927,10 +1930,10 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C83" t="s">
         <v>6</v>
@@ -1938,40 +1941,40 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B84" t="s">
         <v>13</v>
       </c>
       <c r="C84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B85" t="s">
         <v>6</v>
       </c>
       <c r="C85" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C86" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B87" t="s">
         <v>17</v>
@@ -1982,18 +1985,18 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B88" t="s">
         <v>6</v>
       </c>
       <c r="C88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B89" t="s">
         <v>17</v>
@@ -2004,18 +2007,18 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B90" t="s">
         <v>6</v>
       </c>
       <c r="C90" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B91" t="s">
         <v>17</v>
@@ -2026,29 +2029,29 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
       </c>
       <c r="C93" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
@@ -2059,7 +2062,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B95" t="s">
         <v>17</v>
@@ -2070,7 +2073,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
@@ -2081,7 +2084,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B97" t="s">
         <v>17</v>
@@ -2103,7 +2106,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B99" t="s">
         <v>17</v>
@@ -2114,7 +2117,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B100" t="s">
         <v>57</v>
@@ -2125,13 +2128,13 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B101" t="s">
         <v>89</v>
       </c>
       <c r="C101" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2147,7 +2150,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B103" t="s">
         <v>17</v>
@@ -2158,18 +2161,18 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
       </c>
       <c r="C104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B105" t="s">
         <v>48</v>
@@ -2180,18 +2183,18 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B106" t="s">
         <v>48</v>
       </c>
       <c r="C106" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B107" t="s">
         <v>6</v>
@@ -2202,18 +2205,18 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B108" t="s">
         <v>6</v>
       </c>
       <c r="C108" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B109" t="s">
         <v>6</v>
@@ -2224,7 +2227,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B110" t="s">
         <v>6</v>
@@ -2235,7 +2238,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B111" t="s">
         <v>6</v>
@@ -2246,7 +2249,7 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B112" t="s">
         <v>6</v>
@@ -2257,7 +2260,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B113" t="s">
         <v>6</v>
@@ -2268,18 +2271,18 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B114" t="s">
         <v>6</v>
       </c>
       <c r="C114" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B115" t="s">
         <v>6</v>
@@ -2290,7 +2293,7 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B116" t="s">
         <v>57</v>
@@ -2301,21 +2304,21 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B117" t="s">
         <v>11</v>
       </c>
       <c r="C117" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B118" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C118" t="s">
         <v>6</v>
@@ -2323,21 +2326,21 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B119" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C119" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B120" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C120" t="s">
         <v>6</v>
@@ -2345,10 +2348,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B121" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C121" t="s">
         <v>6</v>
@@ -2367,18 +2370,18 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B123" t="s">
         <v>13</v>
       </c>
       <c r="C123" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B124" t="s">
         <v>11</v>
@@ -2389,7 +2392,7 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B125" t="s">
         <v>9</v>
@@ -2400,7 +2403,7 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B126" t="s">
         <v>11</v>
@@ -2411,7 +2414,7 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B127" t="s">
         <v>4</v>
@@ -2422,18 +2425,18 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B128" t="s">
         <v>4</v>
       </c>
       <c r="C128" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B129" t="s">
         <v>4</v>
@@ -2444,21 +2447,21 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B130" t="s">
         <v>53</v>
       </c>
       <c r="C130" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B131" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C131" t="s">
         <v>9</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B133" t="s">
         <v>6</v>
@@ -2488,10 +2491,10 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B134" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C134" t="s">
         <v>9</v>
@@ -2499,10 +2502,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B135" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C135" t="s">
         <v>6</v>
@@ -2521,18 +2524,18 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B137" t="s">
         <v>11</v>
       </c>
       <c r="C137" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B138" t="s">
         <v>11</v>
@@ -2543,7 +2546,7 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B139" t="s">
         <v>11</v>
@@ -2554,18 +2557,18 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B140" t="s">
         <v>5</v>
       </c>
       <c r="C140" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B141" t="s">
         <v>11</v>
@@ -2576,87 +2579,87 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B142" t="s">
         <v>5</v>
       </c>
       <c r="C142" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B143" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C143" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B144" t="s">
         <v>57</v>
       </c>
       <c r="C144" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B145" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C145" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B146" t="s">
         <v>6</v>
       </c>
       <c r="C146" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B147" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C147" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B148" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C148" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B149" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C149" t="s">
         <v>53</v>
@@ -2664,32 +2667,32 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B150" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C150" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B151" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C151" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B152" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C152" t="s">
         <v>6</v>
@@ -2697,46 +2700,46 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B153" t="s">
         <v>53</v>
       </c>
       <c r="C153" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B154" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C154" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B155" t="s">
         <v>6</v>
       </c>
       <c r="C155" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B156" t="s">
         <v>6</v>
       </c>
       <c r="C156" t="s">
-        <v>171</v>
+        <v>6</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2744,10 +2747,10 @@
         <v>172</v>
       </c>
       <c r="B157" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C157" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2769,7 +2772,7 @@
         <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2780,7 +2783,7 @@
         <v>6</v>
       </c>
       <c r="C160" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2788,7 +2791,7 @@
         <v>176</v>
       </c>
       <c r="B161" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C161" t="s">
         <v>11</v>
@@ -2799,7 +2802,7 @@
         <v>177</v>
       </c>
       <c r="B162" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C162" t="s">
         <v>11</v>
@@ -2810,7 +2813,7 @@
         <v>178</v>
       </c>
       <c r="B163" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C163" t="s">
         <v>11</v>
@@ -2821,10 +2824,10 @@
         <v>179</v>
       </c>
       <c r="B164" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C164" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2832,10 +2835,10 @@
         <v>180</v>
       </c>
       <c r="B165" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C165" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2843,7 +2846,7 @@
         <v>181</v>
       </c>
       <c r="B166" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="C166" t="s">
         <v>6</v>
@@ -2854,10 +2857,10 @@
         <v>182</v>
       </c>
       <c r="B167" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="C167" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2865,10 +2868,10 @@
         <v>183</v>
       </c>
       <c r="B168" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="C168" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2876,7 +2879,7 @@
         <v>184</v>
       </c>
       <c r="B169" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C169" t="s">
         <v>6</v>
@@ -2887,7 +2890,7 @@
         <v>185</v>
       </c>
       <c r="B170" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C170" t="s">
         <v>53</v>
@@ -2898,10 +2901,10 @@
         <v>186</v>
       </c>
       <c r="B171" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="C171" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2909,10 +2912,10 @@
         <v>187</v>
       </c>
       <c r="B172" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="C172" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2920,7 +2923,7 @@
         <v>188</v>
       </c>
       <c r="B173" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C173" t="s">
         <v>6</v>
@@ -2931,10 +2934,10 @@
         <v>189</v>
       </c>
       <c r="B174" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C174" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2942,10 +2945,10 @@
         <v>190</v>
       </c>
       <c r="B175" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C175" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2953,10 +2956,10 @@
         <v>191</v>
       </c>
       <c r="B176" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C176" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2964,10 +2967,10 @@
         <v>192</v>
       </c>
       <c r="B177" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C177" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2975,10 +2978,10 @@
         <v>193</v>
       </c>
       <c r="B178" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C178" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2986,10 +2989,10 @@
         <v>194</v>
       </c>
       <c r="B179" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="C179" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2997,10 +3000,10 @@
         <v>195</v>
       </c>
       <c r="B180" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C180" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3008,10 +3011,10 @@
         <v>196</v>
       </c>
       <c r="B181" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="C181" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3041,10 +3044,10 @@
         <v>199</v>
       </c>
       <c r="B184" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C184" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3052,21 +3055,21 @@
         <v>200</v>
       </c>
       <c r="B185" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C185" t="s">
-        <v>6</v>
+        <v>201</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B186" t="s">
         <v>11</v>
       </c>
       <c r="C186" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3082,18 +3085,18 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B188" t="s">
         <v>17</v>
       </c>
       <c r="C188" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B189" t="s">
         <v>6</v>
@@ -3104,29 +3107,29 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B190" t="s">
         <v>6</v>
       </c>
       <c r="C190" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B191" t="s">
         <v>57</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B192" t="s">
         <v>6</v>
@@ -3137,76 +3140,76 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B193" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C193" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B194" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C194" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B195" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C195" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B196" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C196" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B197" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C197" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B198" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C198" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B199" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C199" t="s">
         <v>17</v>
@@ -3214,7 +3217,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B200" t="s">
         <v>5</v>
@@ -3242,12 +3245,12 @@
         <v>57</v>
       </c>
       <c r="C202" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B203" t="s">
         <v>9</v>
@@ -3258,7 +3261,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B204" t="s">
         <v>5</v>
@@ -3269,7 +3272,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B205" t="s">
         <v>5</v>
@@ -3280,10 +3283,10 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B206" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="C206" t="s">
         <v>11</v>
@@ -3291,18 +3294,18 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B207" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C207" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B208" t="s">
         <v>13</v>
@@ -3319,7 +3322,7 @@
         <v>9</v>
       </c>
       <c r="C209" t="s">
-        <v>145</v>
+        <v>9</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -3335,18 +3338,18 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B211" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C211" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B212" t="s">
         <v>4</v>
